--- a/GATEWAY/A1#111BCSSRL00000/BCS/PriamoCCE/5.2/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/PriamoCCE/5.2/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\Shares\Rep-Software\A-FSE-2\Nazionale\Test Case\0 AAA VALIDAZIONE\3-Lettera Dimissione CCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A46C80A-842F-42BC-954F-89D195128036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB3C394-63FD-4611-92CF-FAFC119794E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="198">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -782,18 +782,6 @@
     <t>Il programma non gestisce le informazioni che andrebbero inserite nei tag opzionali</t>
   </si>
   <si>
-    <t>Non è possibile da programma inserire un confidentialityCode pari a R, ma solo pari a N o a V.</t>
-  </si>
-  <si>
-    <t>Il programma non gestisce l'anamnesi patologica</t>
-  </si>
-  <si>
-    <t>Il programma non gestisce la terapia farmacologica alla dimissione.</t>
-  </si>
-  <si>
-    <t>Il programma non permette di inserire codifiche delle diagnosi nella sezione motivo del ricovero.</t>
-  </si>
-  <si>
     <t>f46d8bdf4c4a97e4</t>
   </si>
   <si>
@@ -846,9 +834,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.30.4.4.83eb2ee9fd6141d80cc8afc72539d15c3928a1bb93a2d122c27bf0c9e3ba3bfa.f1423fee2b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Non è possibile generare un CDA2 privo di Decorso Ospedaliero inoltre non gestisce le sezioni Inquadramento clinico iniziale, riscontri ed accertamenti significativi, terapia farmacologica alla dimissione, istruzioni di follow-up, retapia farmacologica effettuata durante il ricovero, procedure eseguite durante il ricovero</t>
   </si>
   <si>
     <t>22 Jul 2024 16:06:22 GMT</t>
@@ -893,12 +878,6 @@
   </si>
   <si>
     <t>viene visualizzato il seguente messaggio di errore: "Errore nella validazione del CDA2: timeout nella chiamata al servizio di validazione"</t>
-  </si>
-  <si>
-    <t>Il programma non gestisce le informazioni che andrebbero inserite nelle sezioni Inquadramento clinico iniziale, riscontri ed accertamenti significativi, terapia farmacologica alla dimissione, istruzioni di follow-up</t>
-  </si>
-  <si>
-    <t>Il programma non gestisce le informazioni che andrebbero inserite nelle sezioni Inquadramento clinico iniziale, riscontri ed accertamenti significativi, terapia farmacologica alla dimissione, istruzioni di follow-up, retapia farmacologica effettuata durante il ricovero, procedure eseguite durante il ricovero</t>
   </si>
 </sst>
 </file>
@@ -2905,14 +2884,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W596"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3201,7 +3179,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <v>6</v>
       </c>
@@ -3221,13 +3199,13 @@
         <v>45492</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J10" s="21" t="s">
         <v>57</v>
@@ -3276,9 +3254,7 @@
       <c r="K11" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="L11" s="21" t="s">
-        <v>203</v>
-      </c>
+      <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
@@ -3319,9 +3295,7 @@
       <c r="K12" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="L12" s="21" t="s">
-        <v>204</v>
-      </c>
+      <c r="L12" s="21"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
@@ -3379,7 +3353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="159" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <v>29</v>
       </c>
@@ -3399,13 +3373,13 @@
         <v>45496</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J14" s="21" t="s">
         <v>57</v>
@@ -3419,7 +3393,7 @@
         <v>57</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P14" s="21" t="s">
         <v>57</v>
@@ -3431,7 +3405,7 @@
         <v>136</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="T14" s="21" t="s">
         <v>134</v>
@@ -3442,7 +3416,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="159" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <v>37</v>
       </c>
@@ -3462,20 +3436,20 @@
         <v>45496</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J15" s="21" t="s">
         <v>57</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M15" s="21" t="s">
         <v>57</v>
@@ -3484,7 +3458,7 @@
         <v>57</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P15" s="21" t="s">
         <v>57</v>
@@ -3496,7 +3470,7 @@
         <v>136</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="T15" s="21" t="s">
         <v>134</v>
@@ -3507,7 +3481,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="159" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <v>45</v>
       </c>
@@ -3541,7 +3515,7 @@
         <v>57</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P16" s="21" t="s">
         <v>57</v>
@@ -3553,7 +3527,7 @@
         <v>136</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="T16" s="21" t="s">
         <v>134</v>
@@ -3564,7 +3538,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="159" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <v>63</v>
       </c>
@@ -3584,13 +3558,13 @@
         <v>45492</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J17" s="21" t="s">
         <v>57</v>
@@ -3604,7 +3578,7 @@
         <v>57</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P17" s="21" t="s">
         <v>57</v>
@@ -3616,7 +3590,7 @@
         <v>57</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="T17" s="21" t="s">
         <v>134</v>
@@ -3627,7 +3601,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="159" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <v>64</v>
       </c>
@@ -3647,13 +3621,13 @@
         <v>45495</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J18" s="21" t="s">
         <v>57</v>
@@ -3667,7 +3641,7 @@
         <v>57</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P18" s="21" t="s">
         <v>57</v>
@@ -3679,7 +3653,7 @@
         <v>57</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="T18" s="21" t="s">
         <v>134</v>
@@ -3716,9 +3690,7 @@
       <c r="K19" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="L19" s="24" t="s">
-        <v>167</v>
-      </c>
+      <c r="L19" s="24"/>
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
@@ -3733,7 +3705,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="159" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <v>66</v>
       </c>
@@ -3753,13 +3725,13 @@
         <v>45495</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>57</v>
@@ -3773,7 +3745,7 @@
         <v>57</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P20" s="21" t="s">
         <v>57</v>
@@ -3785,7 +3757,7 @@
         <v>57</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="T20" s="21" t="s">
         <v>134</v>
@@ -3796,7 +3768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="159" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <v>67</v>
       </c>
@@ -3816,13 +3788,13 @@
         <v>45495</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J21" s="21" t="s">
         <v>57</v>
@@ -3836,7 +3808,7 @@
         <v>57</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P21" s="21" t="s">
         <v>57</v>
@@ -3848,7 +3820,7 @@
         <v>57</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="T21" s="21" t="s">
         <v>134</v>
@@ -3859,7 +3831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="159" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>68</v>
       </c>
@@ -3879,13 +3851,13 @@
         <v>45495</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J22" s="21" t="s">
         <v>57</v>
@@ -3899,7 +3871,7 @@
         <v>57</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P22" s="21" t="s">
         <v>57</v>
@@ -3911,7 +3883,7 @@
         <v>57</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="T22" s="21" t="s">
         <v>134</v>
@@ -3922,7 +3894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="159" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <v>69</v>
       </c>
@@ -3942,13 +3914,13 @@
         <v>45495</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J23" s="21" t="s">
         <v>57</v>
@@ -3962,7 +3934,7 @@
         <v>57</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P23" s="21" t="s">
         <v>57</v>
@@ -3974,7 +3946,7 @@
         <v>57</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="T23" s="21" t="s">
         <v>134</v>
@@ -4011,9 +3983,7 @@
       <c r="K24" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="L24" s="21" t="s">
-        <v>189</v>
-      </c>
+      <c r="L24" s="21"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
@@ -4054,9 +4024,7 @@
       <c r="K25" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="L25" s="21" t="s">
-        <v>168</v>
-      </c>
+      <c r="L25" s="21"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
@@ -4097,9 +4065,7 @@
       <c r="K26" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="L26" s="21" t="s">
-        <v>169</v>
-      </c>
+      <c r="L26" s="21"/>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
@@ -4140,9 +4106,7 @@
       <c r="K27" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="L27" s="21" t="s">
-        <v>170</v>
-      </c>
+      <c r="L27" s="21"/>
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
@@ -4157,7 +4121,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <v>74</v>
       </c>
@@ -4183,9 +4147,7 @@
       <c r="K28" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="L28" s="21" t="s">
-        <v>169</v>
-      </c>
+      <c r="L28" s="21"/>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
@@ -4200,7 +4162,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>369</v>
       </c>
@@ -4220,13 +4182,13 @@
         <v>45492</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J29" s="21" t="s">
         <v>57</v>
@@ -8501,13 +8463,7 @@
       <c r="W596" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:W29" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="NO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:W29" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -11333,27 +11289,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="152ec67562f6729267530f2154e17cab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bea1cbc65ad49ac624eb199c90a8cd28" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -11611,10 +11546,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0F090B6-07CB-41CE-9867-FFD42C97BE05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11637,20 +11604,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0F090B6-07CB-41CE-9867-FFD42C97BE05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>